--- a/mosqito/tests/roughness/data/Test_fc_250.xlsx
+++ b/mosqito/tests/roughness/data/Test_fc_250.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQITo_oo\mosqito\tests\roughness\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQIToGUI\mosqito\tests\roughness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0B0207-D7AC-47E4-9CEC-2A5452B2CF7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF3F6B3-04C3-4030-B84C-771A308B33D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CAD0A15-4EF7-42F5-A22E-404694315B0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Roughness calculation according to Daniel and Weber method </t>
   </si>
@@ -51,112 +51,106 @@
     <t>E. Zwicker, H. Fast!: Psychoacoustics. Springer, Berlin, Heidelberg, 1990</t>
   </si>
   <si>
-    <t>11.375043</t>
-  </si>
-  <si>
-    <t>27.74946</t>
-  </si>
-  <si>
-    <t>30.126747</t>
-  </si>
-  <si>
-    <t>31.823587</t>
-  </si>
-  <si>
-    <t>34.170105</t>
-  </si>
-  <si>
-    <t>36.388596</t>
-  </si>
-  <si>
-    <t>39.497917</t>
-  </si>
-  <si>
-    <t>40.92623</t>
-  </si>
-  <si>
-    <t>43.459465</t>
-  </si>
-  <si>
-    <t>45.397232</t>
-  </si>
-  <si>
-    <t>48.070686</t>
-  </si>
-  <si>
-    <t>51.45793</t>
-  </si>
-  <si>
-    <t>55.079113</t>
-  </si>
-  <si>
-    <t>56.748077</t>
-  </si>
-  <si>
-    <t>59.108562</t>
-  </si>
-  <si>
-    <t>62.403496</t>
-  </si>
-  <si>
-    <t>65.52569</t>
-  </si>
-  <si>
-    <t>156.8228</t>
-  </si>
-  <si>
-    <t>0.10152393</t>
-  </si>
-  <si>
-    <t>0.3699281</t>
-  </si>
-  <si>
-    <t>0.4039366</t>
-  </si>
-  <si>
-    <t>0.427935</t>
-  </si>
-  <si>
-    <t>0.45083532</t>
-  </si>
-  <si>
-    <t>0.4684702</t>
-  </si>
-  <si>
-    <t>0.4854169</t>
-  </si>
-  <si>
-    <t>0.49208906</t>
-  </si>
-  <si>
-    <t>0.49605963</t>
-  </si>
-  <si>
-    <t>0.4918856</t>
-  </si>
-  <si>
-    <t>0.482368</t>
-  </si>
-  <si>
-    <t>0.4678232</t>
-  </si>
-  <si>
-    <t>0.4438136</t>
-  </si>
-  <si>
-    <t>0.42577273</t>
-  </si>
-  <si>
-    <t>0.4073222</t>
-  </si>
-  <si>
-    <t>0.3748884</t>
-  </si>
-  <si>
-    <t>0.34791207</t>
-  </si>
-  <si>
-    <t>0.07687955</t>
+    <t>11.439509</t>
+  </si>
+  <si>
+    <t>27.74356</t>
+  </si>
+  <si>
+    <t>30.087986</t>
+  </si>
+  <si>
+    <t>32.038048</t>
+  </si>
+  <si>
+    <t>35.0145</t>
+  </si>
+  <si>
+    <t>37.96706</t>
+  </si>
+  <si>
+    <t>41.273243</t>
+  </si>
+  <si>
+    <t>43.594078</t>
+  </si>
+  <si>
+    <t>45.3298</t>
+  </si>
+  <si>
+    <t>48.881107</t>
+  </si>
+  <si>
+    <t>53.121265</t>
+  </si>
+  <si>
+    <t>54.943813</t>
+  </si>
+  <si>
+    <t>56.827637</t>
+  </si>
+  <si>
+    <t>59.387787</t>
+  </si>
+  <si>
+    <t>64.01713</t>
+  </si>
+  <si>
+    <t>73.04394</t>
+  </si>
+  <si>
+    <t>157.47661</t>
+  </si>
+  <si>
+    <t>0.102054834</t>
+  </si>
+  <si>
+    <t>0.3669846</t>
+  </si>
+  <si>
+    <t>0.39998206</t>
+  </si>
+  <si>
+    <t>0.426939</t>
+  </si>
+  <si>
+    <t>0.45447007</t>
+  </si>
+  <si>
+    <t>0.47624823</t>
+  </si>
+  <si>
+    <t>0.49128193</t>
+  </si>
+  <si>
+    <t>0.49116743</t>
+  </si>
+  <si>
+    <t>0.48724157</t>
+  </si>
+  <si>
+    <t>0.47324988</t>
+  </si>
+  <si>
+    <t>0.45366368</t>
+  </si>
+  <si>
+    <t>0.43956152</t>
+  </si>
+  <si>
+    <t>0.42367226</t>
+  </si>
+  <si>
+    <t>0.40197152</t>
+  </si>
+  <si>
+    <t>0.35809588</t>
+  </si>
+  <si>
+    <t>0.28570408</t>
+  </si>
+  <si>
+    <t>0.077257395</t>
   </si>
 </sst>
 </file>
@@ -514,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D663FB-7731-4922-8088-EA9CB13BE06A}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B20"/>
+      <selection activeCell="B3" sqref="B3:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -546,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -554,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -562,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -570,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -578,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -586,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -594,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -602,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -610,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -618,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -626,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -634,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -642,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -650,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -658,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -666,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -674,15 +668,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
